--- a/jmrecipes/data/groceries.xlsx
+++ b/jmrecipes/data/groceries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joema\projects\JMRecipes\jmrecipes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17EB0D-67BF-4D24-AEAF-8EAB2A55725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C7E84-580A-4CB1-A59A-B215A20BD018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17100" yWindow="0" windowWidth="17400" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -59,18 +59,12 @@
     <t>weight_unit</t>
   </si>
   <si>
-    <t>oz</t>
-  </si>
-  <si>
     <t>other_amount</t>
   </si>
   <si>
     <t>other_unit</t>
   </si>
   <si>
-    <t>cups</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -89,46 +83,7 @@
     <t>discrete_amount</t>
   </si>
   <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>sweet onion</t>
-  </si>
-  <si>
-    <t>red bell pepper</t>
-  </si>
-  <si>
-    <t>frozen corn</t>
-  </si>
-  <si>
-    <t>frozen</t>
-  </si>
-  <si>
-    <t>ground beef</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/All-Natural-93-Lean-7-Fat-Lean-Ground-Beef-1-lb-Tray/824841960?athbdg=L1600&amp;from=/search</t>
-  </si>
-  <si>
     <t>lb</t>
-  </si>
-  <si>
-    <t>ground sweet italian sausage</t>
-  </si>
-  <si>
-    <t>https://www.kroger.com/p/kroger-sweet-ground-italian-sausage/0001111097038?fulfillment=PICKUP&amp;searchType=suggestions</t>
-  </si>
-  <si>
-    <t>https://www.kroger.com/p/private-selection-vidalia-sweet-onions/0001111060162?fulfillment=SHIP&amp;searchType=suggestions</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Fresh-Red-Bell-Pepper-1-Each/44391581?athbdg=L1200&amp;from=/search</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Frozen-Whole-Kernel-Corn-32-oz-Bag/571358544?athbdg=L1600&amp;from=/search</t>
   </si>
   <si>
     <t>liter</t>
@@ -162,126 +117,18 @@
 other</t>
   </si>
   <si>
-    <t>red kidney beans</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Dark-Red-Kidney-Beans-15-5-oz/10534045?athbdg=L1200&amp;from=/search</t>
-  </si>
-  <si>
-    <t>diced tomatoes</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Petite-Diced-Tomatoes-in-Tomato-Juice-28-oz-Can/10415882?athbdg=L1600&amp;from=/search</t>
-  </si>
-  <si>
-    <t>tomato paste</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Tomato-Paste-6-oz/10415519?athbdg=L1200&amp;from=/search</t>
-  </si>
-  <si>
-    <t>tbsp</t>
-  </si>
-  <si>
-    <t>better than bouillon beef</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Better-Than-Bouillon-Roasted-Beef-Base-8-oz/10323480?athbdg=L1100&amp;from=/search</t>
-  </si>
-  <si>
-    <t>tsp</t>
-  </si>
-  <si>
-    <t>chili powder</t>
-  </si>
-  <si>
     <t>spices</t>
   </si>
   <si>
-    <t>https://www.walmart.com/ip/Great-Value-Chili-Powder-3-oz/157643393?athbdg=L1200&amp;from=/search</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
-    <t>volume guess</t>
-  </si>
-  <si>
-    <t>cayenne</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Ground-Cayenne-Red-Pepper-5-2-oz/114123047?from=/search</t>
-  </si>
-  <si>
-    <t>cumin</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Ground-Cumin-2-5-oz/985501095?athbdg=L1200&amp;from=/search</t>
-  </si>
-  <si>
-    <t>paprika</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Paprika-2-5-oz/559839182?athbdg=L1200&amp;from=/search</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Morton-Salt-Coarse-Sea-Salt-for-Rubs-Roasts-and-Finishing-17-6-oz-Canister/658147410?from=/search</t>
-  </si>
-  <si>
-    <t>black pepper</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Ground-Black-Pepper-6-oz/44662571?athbdg=L1600&amp;from=/search</t>
-  </si>
-  <si>
-    <t>worcestershire sauce</t>
-  </si>
-  <si>
     <t>staple</t>
   </si>
   <si>
-    <t>https://www.walmart.com/ip/Great-Value-Worcestershire-Sauce-10-fl-Ounce/12157940?athbdg=L1200&amp;from=/search</t>
-  </si>
-  <si>
     <t>ml</t>
   </si>
   <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>beverage</t>
-  </si>
-  <si>
-    <t>https://www.kroger.com/p/yuengling-traditional-lager/0008992427898?fulfillment=PICKUP&amp;searchType=default_search</t>
-  </si>
-  <si>
-    <t>fl oz</t>
-  </si>
-  <si>
-    <t>oregano</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Oregano-Leaves-0-87-oz/631368530?athbdg=L1200&amp;from=/search</t>
-  </si>
-  <si>
-    <t>basil</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Kosher-Basil-Leaves-0-8-oz/330313658?from=/search</t>
-  </si>
-  <si>
-    <t>minced garlic</t>
-  </si>
-  <si>
-    <t>https://www.walmart.com/ip/Great-Value-Family-Size-Minced-Garlic-in-Water-32-oz-Jar/974453128?from=/search</t>
-  </si>
-  <si>
     <t>brioche bread</t>
   </si>
   <si>
@@ -292,6 +139,45 @@
   </si>
   <si>
     <t>slices</t>
+  </si>
+  <si>
+    <t>cinnamon</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>maple syrup</t>
+  </si>
+  <si>
+    <t>vanilla extract</t>
+  </si>
+  <si>
+    <t>dairy</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Great-Value-Whole-Vitamin-D-Milk-Gallon-128-fl-oz/10450114?athbdg=L1100&amp;from=/search</t>
+  </si>
+  <si>
+    <t>gallon</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Great-Value-Original-Syrup-24-oz/10315480?athbdg=L1200&amp;from=/search</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Great-Value-Kosher-Ground-Cinnamon-2-5-Oz/533272737?athbdg=L1200&amp;from=/search</t>
+  </si>
+  <si>
+    <t>pantry</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Great-Value-Pure-Vanilla-Extract-2-fl-oz-Food-Form-Liquid-Plastic-Container/10314950?classType=VARIANT&amp;from=/search</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Great-Value-Large-White-Eggs-18-Count/172844767?athbdg=L1100&amp;from=/search</t>
   </si>
 </sst>
 </file>
@@ -339,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -352,6 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -636,10 +523,10 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -678,36 +565,36 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -716,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -727,13 +614,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -744,13 +631,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -761,7 +648,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -775,179 +662,157 @@
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="K7" s="1">
+        <v>18</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1260</v>
+      </c>
+      <c r="M7">
+        <v>90</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.79</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>300</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>80</v>
-      </c>
-      <c r="O7" s="1">
-        <v>15</v>
-      </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="K8" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>46</v>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2400</v>
       </c>
       <c r="M8">
-        <v>0.5</v>
+        <v>128</v>
       </c>
       <c r="N8">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="O8">
-        <v>1.5</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>2.48</v>
+        <v>5.72</v>
       </c>
       <c r="E9" s="1">
-        <v>5.5</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L9">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
-        <v>7.52</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10">
-        <v>560</v>
-      </c>
-      <c r="M10">
-        <v>32</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>92</v>
+        <v>1.18</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
-        <v>5.49</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>3.46</v>
+      </c>
+      <c r="I11" s="1">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L11">
-        <v>1020</v>
+        <v>1650</v>
       </c>
       <c r="M11">
-        <v>78</v>
+        <v>22.5</v>
       </c>
       <c r="N11">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="O11">
         <v>60</v>
@@ -955,469 +820,88 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="G12" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>350</v>
+        <v>2.36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>709</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="6">
+        <v>2400</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>73</v>
+        <v>624</v>
       </c>
       <c r="O12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="G13" s="1">
-        <v>28</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>175</v>
-      </c>
-      <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>35</v>
-      </c>
-      <c r="O13">
-        <v>7</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <v>150</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>30</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4.28</v>
-      </c>
-      <c r="E15" s="1">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15">
-        <v>380</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>38</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3.98</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2.54</v>
-      </c>
-      <c r="E20" s="1">
-        <v>83</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5.64</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>296</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22">
-        <v>295</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>59</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2">
-        <v>13.99</v>
-      </c>
-      <c r="E23" s="1">
-        <v>144</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23">
-        <v>1872</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>158</v>
-      </c>
-      <c r="O23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E26" s="1">
-        <v>181</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26">
-        <v>905</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>181</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3.46</v>
-      </c>
-      <c r="I27" s="1">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L27">
-        <v>1650</v>
-      </c>
-      <c r="M27">
-        <v>22.5</v>
-      </c>
-      <c r="N27">
-        <v>300</v>
-      </c>
-      <c r="O27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
